--- a/data/analysis_results/analysis_results_dg_jul8.xlsx
+++ b/data/analysis_results/analysis_results_dg_jul8.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nathanyeelee/Documents/GitHub/jiaoyang_analysis/data/analysis_results/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{77A6AB92-7282-9E4F-8B86-A320800C61EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F472D7CD-7BF1-3846-8DFF-DA11BB5421B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{FC9D9D4B-F7BD-A145-9B12-F3CB303C2A92}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="28040" windowHeight="17260" xr2:uid="{FC9D9D4B-F7BD-A145-9B12-F3CB303C2A92}"/>
   </bookViews>
   <sheets>
     <sheet name="analysis_results_dg_jul8" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Image No.</t>
   </si>
@@ -74,21 +74,6 @@
     <t>Overlapping Lysosome Intensity</t>
   </si>
   <si>
-    <t>Overlap Area (Normalized by ROI area)</t>
-  </si>
-  <si>
-    <t>Lysosome Intensity (Normalized by ROI Area)</t>
-  </si>
-  <si>
-    <t>Lysosome Intensity (Normalized by lysosome count)</t>
-  </si>
-  <si>
-    <t>Overlapping Lysosome Count (Normalized by ROI Area)</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
     <t>WT 757091 1,2,3M CD68405 CD47488 IBA1647 20x 2+3+3.czi - WT 757091 1,2,3M CD68405 CD47488 IBA1647 20x 2+3+3.czi #19.tif</t>
   </si>
   <si>
@@ -131,22 +116,16 @@
     <t>WT 757098 1M CD68405 mCherry568 IBA1647 20x 3.czi - WT 757098 1M CD68405 mCherry568 IBA1647 20x 3.czi #1.tif</t>
   </si>
   <si>
-    <t>Strong bleed-through</t>
-  </si>
-  <si>
     <t>WT 757098 1M CD68405 mCherry568 IBA1647 20x 3.czi - WT 757098 1M CD68405 mCherry568 IBA1647 20x 3.czi #4.tif</t>
   </si>
   <si>
     <t>WT 757098 1M CD68405 mCherry568 IBA1647 20x 3.czi - WT 757098 1M CD68405 mCherry568 IBA1647 20x 3.czi #7.tif</t>
   </si>
   <si>
-    <t>With All</t>
-  </si>
-  <si>
-    <t>Without Last 3</t>
-  </si>
-  <si>
-    <t>Microglia Intensity x Area/ROI Area</t>
+    <t>CD68 in IBA1 Count/IBA1 Count</t>
+  </si>
+  <si>
+    <t>CD68 in IBA1 Intensity/IBA1 Intensity</t>
   </si>
 </sst>
 </file>
@@ -289,7 +268,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="35">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -472,6 +451,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -636,11 +621,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="33" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="11" fontId="0" fillId="33" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="34" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1016,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19AF1591-07D6-9E4B-8C4F-4BD98F33FD87}">
-  <dimension ref="A1:Z21"/>
+  <dimension ref="A1:Z20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:XFD6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1028,13 +1014,16 @@
     <col min="3" max="3" width="22.6640625" customWidth="1"/>
     <col min="6" max="6" width="22.5" customWidth="1"/>
     <col min="7" max="7" width="22.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14" customWidth="1"/>
+    <col min="9" max="9" width="28.5" customWidth="1"/>
     <col min="10" max="10" width="38.83203125" customWidth="1"/>
+    <col min="11" max="11" width="22.1640625" customWidth="1"/>
     <col min="15" max="15" width="15.33203125" customWidth="1"/>
     <col min="16" max="16" width="13.6640625" customWidth="1"/>
     <col min="25" max="25" width="12.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1075,30 +1064,15 @@
         <v>12</v>
       </c>
       <c r="O1" t="s">
+        <v>29</v>
+      </c>
+      <c r="P1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>13</v>
-      </c>
-      <c r="P1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" t="s">
-        <v>17</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>18</v>
       </c>
       <c r="B2">
         <v>1959502</v>
@@ -1137,41 +1111,18 @@
         <v>137</v>
       </c>
       <c r="O2">
-        <v>1.20439E-4</v>
+        <f>I2/F2</f>
+        <v>7.1428571428571425E-2</v>
       </c>
       <c r="P2">
-        <v>1254.3548390000001</v>
-      </c>
-      <c r="Q2">
-        <v>1.9844328000000001E-2</v>
-      </c>
-      <c r="R2" s="1">
-        <v>1.02067E-5</v>
-      </c>
-      <c r="S2">
-        <f>F2/B2</f>
-        <v>1.4289344945807658E-4</v>
-      </c>
-      <c r="V2">
-        <f>J2/B2</f>
-        <v>2.2181360366052192</v>
-      </c>
-      <c r="W2">
-        <f>K2/B2</f>
-        <v>1.9844327793490386E-2</v>
-      </c>
-      <c r="Y2">
-        <f>M2/L2</f>
-        <v>1.5679542203147353E-3</v>
-      </c>
-      <c r="Z2">
-        <f>G2/F2</f>
-        <v>0.11071428571428571</v>
-      </c>
+        <f>M2/J2</f>
+        <v>3.152003408765146E-5</v>
+      </c>
+      <c r="R2" s="1"/>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>1145602</v>
@@ -1210,41 +1161,18 @@
         <v>1163</v>
       </c>
       <c r="O3">
-        <v>1.2657099999999999E-4</v>
+        <f t="shared" ref="O3:O19" si="0">I3/F3</f>
+        <v>0.13008130081300814</v>
       </c>
       <c r="P3">
-        <v>1364.294118</v>
-      </c>
-      <c r="Q3">
-        <v>0.12147150600000001</v>
-      </c>
-      <c r="R3" s="1">
-        <v>1.3966499999999999E-5</v>
-      </c>
-      <c r="S3">
-        <f t="shared" ref="S3:S19" si="0">F3/B3</f>
-        <v>1.0736713099313723E-4</v>
-      </c>
-      <c r="V3">
-        <f t="shared" ref="V3:V19" si="1">J3/B3</f>
-        <v>1.8001740569586995</v>
-      </c>
-      <c r="W3">
-        <f t="shared" ref="W3:W19" si="2">K3/B3</f>
-        <v>0.12147150581091863</v>
-      </c>
-      <c r="Y3">
-        <f t="shared" ref="Y3:Y19" si="3">M3/L3</f>
-        <v>3.1345174244670239E-2</v>
-      </c>
-      <c r="Z3">
-        <f t="shared" ref="Z3:Z19" si="4">G3/F3</f>
-        <v>0.82926829268292679</v>
-      </c>
+        <f t="shared" ref="P3:P19" si="1">M3/J3</f>
+        <v>5.6393812100473113E-4</v>
+      </c>
+      <c r="R3" s="1"/>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B4">
         <v>1119648</v>
@@ -1283,114 +1211,68 @@
         <v>440</v>
       </c>
       <c r="O4">
-        <v>3.4207200000000001E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.28099173553719009</v>
       </c>
       <c r="P4">
-        <v>1799.9230769999999</v>
-      </c>
-      <c r="Q4">
-        <v>0.104492662</v>
-      </c>
-      <c r="R4" s="1">
-        <v>3.0366699999999998E-5</v>
-      </c>
-      <c r="S4">
+        <f t="shared" si="1"/>
+        <v>2.044245842863468E-4</v>
+      </c>
+      <c r="R4" s="1"/>
+    </row>
+    <row r="5" spans="1:18" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="3">
+        <v>964182</v>
+      </c>
+      <c r="C5" s="3">
+        <v>43206</v>
+      </c>
+      <c r="D5" s="3">
+        <v>770</v>
+      </c>
+      <c r="E5" s="3">
+        <v>313</v>
+      </c>
+      <c r="F5" s="3">
+        <v>124</v>
+      </c>
+      <c r="G5" s="3">
+        <v>59</v>
+      </c>
+      <c r="H5" s="3">
+        <v>21</v>
+      </c>
+      <c r="I5" s="3">
+        <v>30</v>
+      </c>
+      <c r="J5" s="3">
+        <v>2441349</v>
+      </c>
+      <c r="K5" s="3">
+        <v>88368</v>
+      </c>
+      <c r="L5" s="3">
+        <v>33561</v>
+      </c>
+      <c r="M5" s="3">
+        <v>408</v>
+      </c>
+      <c r="O5" s="3">
         <f t="shared" si="0"/>
-        <v>1.0806967904198463E-4</v>
-      </c>
-      <c r="V4">
+        <v>0.24193548387096775</v>
+      </c>
+      <c r="P5" s="3">
         <f t="shared" si="1"/>
-        <v>1.9223747106233389</v>
-      </c>
-      <c r="W4">
-        <f t="shared" si="2"/>
-        <v>0.10449266197947926</v>
-      </c>
-      <c r="Y4">
-        <f t="shared" si="3"/>
-        <v>1.45874084142824E-2</v>
-      </c>
-      <c r="Z4">
-        <f t="shared" si="4"/>
-        <v>0.53719008264462809</v>
-      </c>
+        <v>1.6712071891401026E-4</v>
+      </c>
+      <c r="R5" s="4"/>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5">
-        <v>964182</v>
-      </c>
-      <c r="C5">
-        <v>43206</v>
-      </c>
-      <c r="D5">
-        <v>770</v>
-      </c>
-      <c r="E5">
-        <v>313</v>
-      </c>
-      <c r="F5">
-        <v>124</v>
-      </c>
-      <c r="G5">
-        <v>59</v>
-      </c>
-      <c r="H5">
-        <v>21</v>
-      </c>
-      <c r="I5">
-        <v>30</v>
-      </c>
-      <c r="J5">
-        <v>2441349</v>
-      </c>
-      <c r="K5">
-        <v>88368</v>
-      </c>
-      <c r="L5">
-        <v>33561</v>
-      </c>
-      <c r="M5">
-        <v>408</v>
-      </c>
-      <c r="O5">
-        <v>3.2462799999999998E-4</v>
-      </c>
-      <c r="P5">
-        <v>1497.762712</v>
-      </c>
-      <c r="Q5">
-        <v>9.1650746000000005E-2</v>
-      </c>
-      <c r="R5" s="1">
-        <v>3.1114500000000002E-5</v>
-      </c>
-      <c r="S5">
-        <f t="shared" si="0"/>
-        <v>1.2860642492807373E-4</v>
-      </c>
-      <c r="V5">
-        <f t="shared" si="1"/>
-        <v>2.5320416684816767</v>
-      </c>
-      <c r="W5">
-        <f t="shared" si="2"/>
-        <v>9.165074643583887E-2</v>
-      </c>
-      <c r="Y5">
-        <f t="shared" si="3"/>
-        <v>1.2156967909180298E-2</v>
-      </c>
-      <c r="Z5">
-        <f t="shared" si="4"/>
-        <v>0.47580645161290325</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>1334980</v>
@@ -1429,41 +1311,18 @@
         <v>710</v>
       </c>
       <c r="O6">
-        <v>2.6667100000000001E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.16091954022988506</v>
       </c>
       <c r="P6">
-        <v>1887.8</v>
-      </c>
-      <c r="Q6">
-        <v>0.106057769</v>
-      </c>
-      <c r="R6" s="1">
-        <v>2.09741E-5</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>1.3033903129634902E-4</v>
-      </c>
-      <c r="V6">
         <f t="shared" si="1"/>
-        <v>2.6220767352319885</v>
-      </c>
-      <c r="W6">
-        <f t="shared" si="2"/>
-        <v>0.10605776865571019</v>
-      </c>
-      <c r="Y6">
-        <f t="shared" si="3"/>
-        <v>1.3621103117505995E-2</v>
-      </c>
-      <c r="Z6">
-        <f t="shared" si="4"/>
-        <v>0.43103448275862066</v>
-      </c>
+        <v>2.0283280292079237E-4</v>
+      </c>
+      <c r="R6" s="1"/>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B7">
         <v>1464729</v>
@@ -1502,41 +1361,18 @@
         <v>841</v>
       </c>
       <c r="O7">
-        <v>1.304E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.947643979057591E-2</v>
       </c>
       <c r="P7">
-        <v>1793.96</v>
-      </c>
-      <c r="Q7">
-        <v>9.1857947999999995E-2</v>
-      </c>
-      <c r="R7" s="1">
-        <v>1.29717E-5</v>
-      </c>
-      <c r="S7">
-        <f t="shared" si="0"/>
-        <v>1.3039954831234993E-4</v>
-      </c>
-      <c r="V7">
         <f t="shared" si="1"/>
-        <v>1.7766747295916172</v>
-      </c>
-      <c r="W7">
-        <f t="shared" si="2"/>
-        <v>9.1857947784197619E-2</v>
-      </c>
-      <c r="Y7">
-        <f t="shared" si="3"/>
-        <v>1.4334412817453554E-2</v>
-      </c>
-      <c r="Z7">
-        <f t="shared" si="4"/>
-        <v>0.39267015706806285</v>
-      </c>
+        <v>3.2316981555495869E-4</v>
+      </c>
+      <c r="R7" s="1"/>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B8">
         <v>1207899</v>
@@ -1575,79 +1411,32 @@
         <v>207</v>
       </c>
       <c r="O8">
-        <v>3.5764599999999998E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.22602739726027396</v>
       </c>
       <c r="P8">
-        <v>2001.630435</v>
-      </c>
-      <c r="Q8">
-        <v>7.6227400000000001E-2</v>
-      </c>
-      <c r="R8" s="1">
-        <v>2.73202E-5</v>
-      </c>
-      <c r="S8">
-        <f t="shared" si="0"/>
-        <v>1.208710330913429E-4</v>
-      </c>
-      <c r="V8">
         <f t="shared" si="1"/>
-        <v>2.6254794481988974</v>
-      </c>
-      <c r="W8">
-        <f t="shared" si="2"/>
-        <v>7.6227399807434232E-2</v>
-      </c>
-      <c r="Y8">
-        <f t="shared" si="3"/>
-        <v>5.3780202650038971E-3</v>
-      </c>
-      <c r="Z8">
-        <f t="shared" si="4"/>
-        <v>0.31506849315068491</v>
-      </c>
+        <v>6.5272628317473457E-5</v>
+      </c>
+      <c r="R8" s="1"/>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="J9">
+        <f>K5/J5</f>
+        <v>3.6196381590669749E-2</v>
+      </c>
       <c r="O9">
         <f>AVERAGE(O2:O8)</f>
-        <v>2.3834671428571425E-4</v>
+        <v>0.17298006699006746</v>
       </c>
       <c r="P9">
-        <f t="shared" ref="P9:R9" si="5">AVERAGE(P2:P8)</f>
-        <v>1657.1035972857146</v>
-      </c>
-      <c r="Q9">
-        <f t="shared" si="5"/>
-        <v>8.7371765571428561E-2</v>
-      </c>
-      <c r="R9">
-        <f t="shared" si="5"/>
-        <v>2.0988628571428573E-5</v>
-      </c>
-      <c r="S9">
-        <f>AVERAGE(S2:S8)</f>
-        <v>1.24078042445902E-4</v>
-      </c>
-      <c r="V9">
-        <f>AVERAGE(V2:V8)</f>
-        <v>2.2138510550987767</v>
-      </c>
-      <c r="W9">
-        <f>AVERAGE(W2:W8)</f>
-        <v>8.7371765466724177E-2</v>
-      </c>
-      <c r="Y9">
-        <f t="shared" ref="X9:Y9" si="6">AVERAGE(Y2:Y8)</f>
-        <v>1.3284434426915874E-2</v>
-      </c>
-      <c r="Z9">
-        <f>AVERAGE(Z2:Z8)</f>
-        <v>0.44167889223315887</v>
+        <f>AVERAGE(P2:P8)</f>
+        <v>2.2261124358370917E-4</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B11">
         <v>1412319</v>
@@ -1686,41 +1475,18 @@
         <v>158</v>
       </c>
       <c r="O11">
-        <v>1.71349E-4</v>
+        <f t="shared" si="0"/>
+        <v>9.8591549295774641E-2</v>
       </c>
       <c r="P11">
-        <v>1821.0333330000001</v>
-      </c>
-      <c r="Q11">
-        <v>3.8681770999999997E-2</v>
-      </c>
-      <c r="R11" s="1">
-        <v>1.48692E-5</v>
-      </c>
-      <c r="S11">
-        <f t="shared" si="0"/>
-        <v>1.5081578595204059E-4</v>
-      </c>
-      <c r="V11">
         <f t="shared" si="1"/>
-        <v>2.1201768155777838</v>
-      </c>
-      <c r="W11">
-        <f t="shared" si="2"/>
-        <v>3.8681770903032528E-2</v>
-      </c>
-      <c r="Y11">
-        <f t="shared" si="3"/>
-        <v>2.2489182418583466E-3</v>
-      </c>
-      <c r="Z11">
-        <f t="shared" si="4"/>
-        <v>0.14084507042253522</v>
-      </c>
+        <v>5.276576076538406E-5</v>
+      </c>
+      <c r="R11" s="1"/>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B12">
         <v>1278084</v>
@@ -1759,41 +1525,18 @@
         <v>257</v>
       </c>
       <c r="O12">
-        <v>2.1438300000000001E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.13218390804597702</v>
       </c>
       <c r="P12">
-        <v>2137.8055559999998</v>
-      </c>
-      <c r="Q12">
-        <v>6.0215917000000001E-2</v>
-      </c>
-      <c r="R12" s="1">
-        <v>1.7995700000000001E-5</v>
-      </c>
-      <c r="S12">
-        <f t="shared" si="0"/>
-        <v>1.3614128648821203E-4</v>
-      </c>
-      <c r="V12">
         <f t="shared" si="1"/>
-        <v>1.4493382281602774</v>
-      </c>
-      <c r="W12">
-        <f t="shared" si="2"/>
-        <v>6.0215916950685559E-2</v>
-      </c>
-      <c r="Y12">
-        <f t="shared" si="3"/>
-        <v>4.8456737749118543E-3</v>
-      </c>
-      <c r="Z12">
-        <f t="shared" si="4"/>
-        <v>0.20689655172413793</v>
-      </c>
+        <v>1.3874073082354769E-4</v>
+      </c>
+      <c r="R12" s="1"/>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="B13">
         <v>1534652</v>
@@ -1832,41 +1575,18 @@
         <v>1528</v>
       </c>
       <c r="O13">
-        <v>3.2189700000000003E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.21363636363636362</v>
       </c>
       <c r="P13">
-        <v>3988.2474229999998</v>
-      </c>
-      <c r="Q13">
-        <v>0.252083208</v>
-      </c>
-      <c r="R13" s="1">
-        <v>3.0625800000000001E-5</v>
-      </c>
-      <c r="S13">
-        <f t="shared" si="0"/>
-        <v>1.4335497559055734E-4</v>
-      </c>
-      <c r="V13">
         <f t="shared" si="1"/>
-        <v>2.1399835272100778</v>
-      </c>
-      <c r="W13">
-        <f t="shared" si="2"/>
-        <v>0.25208320844074095</v>
-      </c>
-      <c r="Y13">
-        <f t="shared" si="3"/>
-        <v>2.476699894643002E-2</v>
-      </c>
-      <c r="Z13">
-        <f t="shared" si="4"/>
-        <v>0.44090909090909092</v>
-      </c>
+        <v>4.6526781826541582E-4</v>
+      </c>
+      <c r="R13" s="1"/>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="B14">
         <v>1080954</v>
@@ -1905,41 +1625,18 @@
         <v>321</v>
       </c>
       <c r="O14">
-        <v>2.8215800000000002E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.1796875</v>
       </c>
       <c r="P14">
-        <v>2142.302326</v>
-      </c>
-      <c r="Q14">
-        <v>8.5220092999999997E-2</v>
-      </c>
-      <c r="R14" s="1">
-        <v>2.1277500000000001E-5</v>
-      </c>
-      <c r="S14">
-        <f t="shared" si="0"/>
-        <v>1.1841391955624383E-4</v>
-      </c>
-      <c r="V14">
         <f t="shared" si="1"/>
-        <v>1.2918570077912659</v>
-      </c>
-      <c r="W14">
-        <f t="shared" si="2"/>
-        <v>8.5220092621887705E-2</v>
-      </c>
-      <c r="Y14">
-        <f t="shared" si="3"/>
-        <v>9.143475660124762E-3</v>
-      </c>
-      <c r="Z14">
-        <f t="shared" si="4"/>
-        <v>0.3359375</v>
-      </c>
+        <v>2.2987057069486793E-4</v>
+      </c>
+      <c r="R14" s="1"/>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B15">
         <v>1232694</v>
@@ -1978,41 +1675,18 @@
         <v>112</v>
       </c>
       <c r="O15">
-        <v>1.61435E-4</v>
+        <f t="shared" si="0"/>
+        <v>8.45771144278607E-2</v>
       </c>
       <c r="P15">
-        <v>1644.083333</v>
-      </c>
-      <c r="Q15">
-        <v>3.2009566000000003E-2</v>
-      </c>
-      <c r="R15" s="1">
-        <v>1.37909E-5</v>
-      </c>
-      <c r="S15">
-        <f t="shared" si="0"/>
-        <v>1.6305749845460431E-4</v>
-      </c>
-      <c r="V15">
         <f t="shared" si="1"/>
-        <v>2.2341781496462221</v>
-      </c>
-      <c r="W15">
-        <f t="shared" si="2"/>
-        <v>3.2009566039909336E-2</v>
-      </c>
-      <c r="Y15">
-        <f t="shared" si="3"/>
-        <v>1.6301341949756935E-3</v>
-      </c>
-      <c r="Z15">
-        <f t="shared" si="4"/>
-        <v>0.11940298507462686</v>
-      </c>
+        <v>4.0667262635717911E-5</v>
+      </c>
+      <c r="R15" s="1"/>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="B16">
         <v>1041207</v>
@@ -2051,41 +1725,18 @@
         <v>321</v>
       </c>
       <c r="O16">
-        <v>4.2546800000000003E-4</v>
+        <f t="shared" si="0"/>
+        <v>0.30357142857142855</v>
       </c>
       <c r="P16">
-        <v>2375.8888889999998</v>
-      </c>
-      <c r="Q16">
-        <v>0.12322045500000001</v>
-      </c>
-      <c r="R16" s="1">
-        <v>3.2654399999999997E-5</v>
-      </c>
-      <c r="S16">
-        <f t="shared" si="0"/>
-        <v>1.0756746737200192E-4</v>
-      </c>
-      <c r="V16">
         <f t="shared" si="1"/>
-        <v>1.1539914733573631</v>
-      </c>
-      <c r="W16">
-        <f t="shared" si="2"/>
-        <v>0.12322045472225984</v>
-      </c>
-      <c r="Y16">
-        <f t="shared" si="3"/>
-        <v>1.1777223363663047E-2</v>
-      </c>
-      <c r="Z16">
-        <f t="shared" si="4"/>
-        <v>0.48214285714285715</v>
-      </c>
+        <v>2.6715625894682178E-4</v>
+      </c>
+      <c r="R16" s="1"/>
     </row>
     <row r="17" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="B17" s="2">
         <v>1261698</v>
@@ -2123,42 +1774,28 @@
       <c r="M17" s="2">
         <v>1285</v>
       </c>
-      <c r="O17" s="2">
-        <v>5.6511099999999998E-4</v>
-      </c>
-      <c r="P17" s="2">
-        <v>2962.5439999999999</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>0.29350763800000002</v>
-      </c>
-      <c r="R17" s="3">
-        <v>4.5969800000000002E-5</v>
-      </c>
-      <c r="S17">
+      <c r="N17"/>
+      <c r="O17">
         <f t="shared" si="0"/>
-        <v>1.3394647530550101E-4</v>
-      </c>
-      <c r="T17" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V17">
+        <v>0.34319526627218933</v>
+      </c>
+      <c r="P17">
         <f t="shared" si="1"/>
-        <v>1.9339207956262117</v>
-      </c>
-      <c r="W17">
-        <f t="shared" si="2"/>
-        <v>0.29350763811942321</v>
-      </c>
-      <c r="Y17">
-        <f t="shared" si="3"/>
-        <v>3.1386629540069856E-2</v>
-      </c>
+        <v>5.2663416425412213E-4</v>
+      </c>
+      <c r="Q17"/>
+      <c r="R17" s="1"/>
+      <c r="S17"/>
+      <c r="T17"/>
+      <c r="U17"/>
+      <c r="V17"/>
+      <c r="W17"/>
+      <c r="Y17"/>
       <c r="Z17"/>
     </row>
     <row r="18" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B18" s="2">
         <v>1359855</v>
@@ -2196,42 +1833,28 @@
       <c r="M18" s="2">
         <v>1292</v>
       </c>
-      <c r="O18" s="2">
-        <v>5.5741199999999997E-4</v>
-      </c>
-      <c r="P18" s="2">
-        <v>2778.864</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>0.25543752800000002</v>
-      </c>
-      <c r="R18" s="3">
-        <v>4.1916199999999997E-5</v>
-      </c>
-      <c r="S18">
+      <c r="N18"/>
+      <c r="O18">
         <f t="shared" si="0"/>
-        <v>8.6773957517529449E-5</v>
-      </c>
-      <c r="T18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V18">
+        <v>0.48305084745762711</v>
+      </c>
+      <c r="P18">
         <f t="shared" si="1"/>
-        <v>1.7645579859617386</v>
-      </c>
-      <c r="W18">
-        <f t="shared" si="2"/>
-        <v>0.25543752826588129</v>
-      </c>
-      <c r="Y18">
-        <f t="shared" si="3"/>
-        <v>5.0740289832305698E-2</v>
-      </c>
+        <v>5.3843586049510256E-4</v>
+      </c>
+      <c r="Q18"/>
+      <c r="R18" s="1"/>
+      <c r="S18"/>
+      <c r="T18"/>
+      <c r="U18"/>
+      <c r="V18"/>
+      <c r="W18"/>
+      <c r="Y18"/>
       <c r="Z18"/>
     </row>
     <row r="19" spans="1:26" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B19" s="2">
         <v>853557</v>
@@ -2269,103 +1892,33 @@
       <c r="M19" s="2">
         <v>715</v>
       </c>
-      <c r="O19" s="2">
-        <v>2.3548500000000001E-4</v>
-      </c>
-      <c r="P19" s="2">
-        <v>2308.241935</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0.16766425700000001</v>
-      </c>
-      <c r="R19" s="3">
-        <v>2.3431400000000001E-5</v>
-      </c>
-      <c r="S19">
+      <c r="N19"/>
+      <c r="O19">
         <f t="shared" si="0"/>
-        <v>6.3264667737479753E-5</v>
-      </c>
-      <c r="T19" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="V19">
+        <v>0.37037037037037035</v>
+      </c>
+      <c r="P19">
         <f t="shared" si="1"/>
-        <v>1.0923090080685882</v>
-      </c>
-      <c r="W19">
-        <f t="shared" si="2"/>
-        <v>0.16766425675145305</v>
-      </c>
-      <c r="Y19">
-        <f t="shared" si="3"/>
-        <v>5.869797225186766E-2</v>
-      </c>
+        <v>7.6688103583640445E-4</v>
+      </c>
+      <c r="Q19"/>
+      <c r="R19" s="1"/>
+      <c r="S19"/>
+      <c r="T19"/>
+      <c r="U19"/>
+      <c r="V19"/>
+      <c r="W19"/>
+      <c r="Y19"/>
       <c r="Z19"/>
     </row>
     <row r="20" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="K20">
-        <f>AVERAGE(K11:K19)</f>
-        <v>182123.77777777778</v>
-      </c>
-      <c r="N20" t="s">
-        <v>35</v>
-      </c>
       <c r="O20">
         <f>AVERAGE(O11:O19)</f>
-        <v>3.2607755555555553E-4</v>
+        <v>0.24542937200862125</v>
       </c>
       <c r="P20">
-        <f t="shared" ref="P20:R20" si="7">AVERAGE(P11:P19)</f>
-        <v>2462.1123105555557</v>
-      </c>
-      <c r="Q20">
-        <f t="shared" si="7"/>
-        <v>0.14533782588888888</v>
-      </c>
-      <c r="R20">
-        <f t="shared" si="7"/>
-        <v>2.6947877777777779E-5</v>
-      </c>
-      <c r="S20">
-        <f>AVERAGE(S11:S19)</f>
-        <v>1.225928926637967E-4</v>
-      </c>
-      <c r="V20">
-        <f>AVERAGE(V11:V19)</f>
-        <v>1.6867014434888365</v>
-      </c>
-      <c r="W20">
-        <f>AVERAGE(W11:W19)</f>
-        <v>0.14533782586836369</v>
-      </c>
-      <c r="Y20">
-        <f>AVERAGE(Y11:Y19)</f>
-        <v>2.1693035089578549E-2</v>
-      </c>
-      <c r="Z20">
-        <f>AVERAGE(Z11:Z19)</f>
-        <v>0.28768900921220802</v>
-      </c>
-    </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
-      <c r="N21" t="s">
-        <v>36</v>
-      </c>
-      <c r="O21">
-        <f>AVERAGE(O11:O16)</f>
-        <v>2.6278166666666666E-4</v>
-      </c>
-      <c r="P21">
-        <f t="shared" ref="P21:R21" si="8">AVERAGE(P11:P16)</f>
-        <v>2351.5601433333336</v>
-      </c>
-      <c r="Q21">
-        <f t="shared" si="8"/>
-        <v>9.8571834999999997E-2</v>
-      </c>
-      <c r="R21">
-        <f t="shared" si="8"/>
-        <v>2.1868916666666663E-5</v>
+        <f>AVERAGE(P11:P19)</f>
+        <v>3.3626882919082047E-4</v>
       </c>
     </row>
   </sheetData>
